--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Galp-Galr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Galp-Galr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,7 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>ECs</t>
   </si>
   <si>
     <t>Galp</t>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.07324666666666667</v>
+        <v>0.1314505</v>
       </c>
       <c r="H2">
-        <v>0.21974</v>
+        <v>0.262901</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,84 +555,22 @@
         <v>0.024938</v>
       </c>
       <c r="O2">
-        <v>0.1461345084412046</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1461345084412046</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0006088751244444444</v>
+        <v>0.001092704189666667</v>
       </c>
       <c r="R2">
-        <v>0.00547987612</v>
+        <v>0.006556225137999999</v>
       </c>
       <c r="S2">
-        <v>0.1461345084412046</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.1461345084412046</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G3">
-        <v>0.07324666666666667</v>
-      </c>
-      <c r="H3">
-        <v>0.21974</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M3">
-        <v>0.048571</v>
-      </c>
-      <c r="N3">
-        <v>0.145713</v>
-      </c>
-      <c r="O3">
-        <v>0.8538654915587955</v>
-      </c>
-      <c r="P3">
-        <v>0.8538654915587955</v>
-      </c>
-      <c r="Q3">
-        <v>0.003557663846666667</v>
-      </c>
-      <c r="R3">
-        <v>0.03201897462</v>
-      </c>
-      <c r="S3">
-        <v>0.8538654915587955</v>
-      </c>
-      <c r="T3">
-        <v>0.8538654915587955</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
